--- a/src/main/resources/template/WaterQuantityManageTemplate.xlsx
+++ b/src/main/resources/template/WaterQuantityManageTemplate.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="0" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="0" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LH\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDEAworkspace\water_service\src\main\resources\template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C1BD0A2-FE96-454F-96C4-5EA6F89505A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96E42707-E4C2-4407-8C46-2B3789A38A6D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="465" yWindow="600" windowWidth="28335" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60" yWindow="45" windowWidth="28740" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="SQL Results" sheetId="1" r:id="rId1"/>
+    <sheet name="waterUseData" sheetId="1" r:id="rId1"/>
     <sheet name="SQL Statement" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -523,7 +523,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
